--- a/hardware/power_supply_module/rev_c/power_supply_module_bom.xlsx
+++ b/hardware/power_supply_module/rev_c/power_supply_module_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="power_supply_module" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="power_supply_module_bom" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">1727-5151-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">0.010 ??</t>
+    <t xml:space="preserve">0.010 Ω</t>
   </si>
   <si>
     <t xml:space="preserve">RESISTOR0805_RES</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">WSLPB-.01CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">0.017 ??</t>
+    <t xml:space="preserve">0.017 Ω</t>
   </si>
   <si>
     <t xml:space="preserve">R2, R3, R4, R5, R6, R7, R8, R9</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">WSLPB-.017CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">0.05 ??</t>
+    <t xml:space="preserve">0.05 Ω</t>
   </si>
   <si>
     <t xml:space="preserve">R10, R11</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">490-10440-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">1 M??</t>
+    <t xml:space="preserve">1 MΩ</t>
   </si>
   <si>
     <t xml:space="preserve">RESISTOR0402_RES</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">P1.00MLCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">1 k??</t>
+    <t xml:space="preserve">1 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R12, R13</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">490-5523-1-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">100 k??</t>
+    <t xml:space="preserve">100 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R43, R44, R45, R46, R47</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">P100KJCT-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">130 k??</t>
+    <t xml:space="preserve">130 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R48, R49, R50, R51</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">P130KLCT-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">150 ??</t>
+    <t xml:space="preserve">150 Ω</t>
   </si>
   <si>
     <t xml:space="preserve">R52, R53</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">P150LCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">2 k??</t>
+    <t xml:space="preserve">2 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">1276-1193-1-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">23.2 k??</t>
+    <t xml:space="preserve">23.2 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R42</t>
@@ -256,13 +256,13 @@
     <t xml:space="preserve">311-2257-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">240 k??</t>
+    <t xml:space="preserve">240 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R54</t>
   </si>
   <si>
-    <t xml:space="preserve">P240JCT-ND</t>
+    <t xml:space="preserve">P240KLCT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">3.3 nF</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">LM3480IM3-3.3/NOPBCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">301 k??</t>
+    <t xml:space="preserve">301 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R55</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">P301KLCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">340 k??</t>
+    <t xml:space="preserve">340 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R56</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">541-2582-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">680 k??</t>
+    <t xml:space="preserve">680 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R57, R58, R59, R60</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">P680KLCT-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">750 k??</t>
+    <t xml:space="preserve">750 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R61</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">P750KJCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">953 k??</t>
+    <t xml:space="preserve">953 kΩ</t>
   </si>
   <si>
     <t xml:space="preserve">R62</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">U29</t>
   </si>
   <si>
-    <t xml:space="preserve">1K I2C?"? Serial EEPROM</t>
+    <t xml:space="preserve">1K I2C™ Serial EEPROM</t>
   </si>
   <si>
     <t xml:space="preserve">497-8631-1-ND</t>
@@ -560,7 +560,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -581,16 +581,105 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -598,8 +687,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -623,6 +727,22 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -630,14 +750,90 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -648,20 +844,20 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="26.8520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="116.760204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.2551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="116.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="62.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,7 +1840,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/hardware/power_supply_module/rev_c/power_supply_module_bom.xlsx
+++ b/hardware/power_supply_module/rev_c/power_supply_module_bom.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">1727-5151-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">0.010 Ω</t>
+    <t xml:space="preserve">0.010 ?</t>
   </si>
   <si>
     <t xml:space="preserve">RESISTOR0805_RES</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">WSLPB-.01CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">0.017 Ω</t>
+    <t xml:space="preserve">0.017 ?</t>
   </si>
   <si>
     <t xml:space="preserve">R2, R3, R4, R5, R6, R7, R8, R9</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">WSLPB-.017CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">0.05 Ω</t>
+    <t xml:space="preserve">0.05 ?</t>
   </si>
   <si>
     <t xml:space="preserve">R10, R11</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">490-10440-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">1 MΩ</t>
+    <t xml:space="preserve">1 M?</t>
   </si>
   <si>
     <t xml:space="preserve">RESISTOR0402_RES</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">P1.00MLCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">1 kΩ</t>
+    <t xml:space="preserve">1 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R12, R13</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">490-5523-1-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">100 kΩ</t>
+    <t xml:space="preserve">100 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R43, R44, R45, R46, R47</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">P100KJCT-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">130 kΩ</t>
+    <t xml:space="preserve">130 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R48, R49, R50, R51</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">P130KLCT-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">150 Ω</t>
+    <t xml:space="preserve">150 ?</t>
   </si>
   <si>
     <t xml:space="preserve">R52, R53</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">P150LCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">2 kΩ</t>
+    <t xml:space="preserve">2 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">1276-1193-1-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">23.2 kΩ</t>
+    <t xml:space="preserve">23.2 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R42</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">311-2257-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">240 kΩ</t>
+    <t xml:space="preserve">240 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R54</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">LM3480IM3-3.3/NOPBCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">301 kΩ</t>
+    <t xml:space="preserve">301 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R55</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">P301KLCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">340 kΩ</t>
+    <t xml:space="preserve">340 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R56</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">541-2582-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">680 kΩ</t>
+    <t xml:space="preserve">680 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R57, R58, R59, R60</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">P680KLCT-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">750 kΩ</t>
+    <t xml:space="preserve">750 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R61</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">P750KJCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">953 kΩ</t>
+    <t xml:space="preserve">953 k?</t>
   </si>
   <si>
     <t xml:space="preserve">R62</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">U29</t>
   </si>
   <si>
-    <t xml:space="preserve">1K I2C™ Serial EEPROM</t>
+    <t xml:space="preserve">1K I2C?"? Serial EEPROM</t>
   </si>
   <si>
     <t xml:space="preserve">497-8631-1-ND</t>
@@ -560,7 +560,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -581,105 +581,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -687,23 +598,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,22 +623,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -750,90 +630,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -844,20 +648,20 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="116.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="62.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.28571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="118.071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
